--- a/data/dynamic/integral_parameters.xlsx
+++ b/data/dynamic/integral_parameters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,161 +436,169 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>crust density</t>
+          <t>crust_density</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>crust depth</t>
+          <t>crust_depth</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>core density</t>
+          <t>core_density_center</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>core hydro</t>
+          <t>core_density_boundary</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>core sulfur</t>
+          <t>core_radius</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>FeH</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>FeS</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>has_viscosity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>viscosity</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>andrade</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>visc_melt</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>core radius</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>has_melt_layer</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>viscosity_melt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>inertia</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Love number (real)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Love number (imaginary)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Chandler period</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Chandler period elastic</t>
+          <t>Molodensky_number</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Love_number_elastic</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Love_number</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Love_number_CW</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Love_number_secular</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Chandler_period</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Chandler_period_elastic</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="B2" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>6.960680019802041</v>
+        <v>6.870143032263075</v>
       </c>
       <c r="D2" t="n">
+        <v>6.253325572122097</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1581.769000033299</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>0.8</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>1e+21</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>0.3</v>
       </c>
-      <c r="H2" t="n">
-        <v>1000000000</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1679.452764201781</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.3642902232754551</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1726691024390115</v>
+      <c r="K2" t="b">
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.001940694103453988</v>
+        <v>100000000000</v>
       </c>
       <c r="M2" t="n">
-        <v>211.886590513467</v>
+        <v>0.3687876525319512</v>
       </c>
       <c r="N2" t="n">
-        <v>200.7088068119643</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>70</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6.961513278050639</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1e+21</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1000000000</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1684.96151620178</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.3639451938065923</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1735466049939514</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-0.001950792387736489</v>
-      </c>
-      <c r="M3" t="n">
-        <v>211.6169340063495</v>
-      </c>
-      <c r="N3" t="n">
-        <v>200.6174102368593</v>
+        <v>0.1765742085805489</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.1198462460031195</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>(0.15129912491205744-0.0015812483535241387j)</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>(0.16667828310449262-0.009978777279610523j)</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>1.289935148733321</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.5206460943029</v>
+      </c>
+      <c r="T2" t="n">
+        <v>201.1347203338784</v>
       </c>
     </row>
   </sheetData>
